--- a/xlsx/西半球_intext.xlsx
+++ b/xlsx/西半球_intext.xlsx
@@ -29,13 +29,13 @@
     <t>地球</t>
   </si>
   <si>
-    <t>政策_政策_美國_西半球</t>
+    <t>政策_政策_美国_西半球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E5%88%9D%E5%AD%90%E5%8D%88%E7%B7%9A</t>
   </si>
   <si>
-    <t>本初子午線</t>
+    <t>本初子午线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/180%E5%BA%A6%E7%BB%8F%E7%BA%BF</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%8A%E7%90%83</t>
   </si>
   <si>
-    <t>東半球</t>
+    <t>东半球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E6%B4%B2</t>
@@ -83,25 +83,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>亞洲</t>
+    <t>亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>紐西蘭</t>
+    <t>纽西兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%A5%B5%E6%B4%B2</t>
   </si>
   <si>
-    <t>南極洲</t>
+    <t>南极洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%B8%E5%8D%8A%E7%90%83</t>
   </si>
   <si>
-    <t>陸半球</t>
+    <t>陆半球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%AD%A6</t>
